--- a/ARKEA/municipios_geres.xlsx
+++ b/ARKEA/municipios_geres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edyfe\Documents\Trabajo en andamiento\GitHub\ARKEA\ARKEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F5A07-9865-42C1-AC6F-5F49373D060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F095C-E43E-4E02-B1F8-627E8D66C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{4EA4D169-138F-3C40-BAE6-5528CCB7810A}"/>
   </bookViews>
@@ -994,10 +994,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF618FB-E366-024F-9A3C-1EF6F5DBC9B6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -1580,10 +1579,10 @@
         <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>100</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>102</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>103</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>105</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>106</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>107</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>112</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>113</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>115</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>116</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>117</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>118</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>119</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>121</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>122</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>123</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>124</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>125</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>126</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>127</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>128</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>129</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>130</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>131</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>132</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>133</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>143</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>144</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>145</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>146</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>151</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>152</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>153</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>154</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>155</v>
       </c>
@@ -2191,7 +2190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>157</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>158</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>159</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>160</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>161</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>163</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>164</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>167</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>168</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>169</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>170</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>171</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>173</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>174</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>176</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>177</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>178</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>179</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>180</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>181</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>182</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>183</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>184</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>185</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>187</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>188</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>190</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>191</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>192</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>193</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>194</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>195</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>196</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>199</v>
       </c>
@@ -2504,13 +2503,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B187" xr:uid="{8DF618FB-E366-024F-9A3C-1EF6F5DBC9B6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Cachoeirinha"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B187" xr:uid="{8DF618FB-E366-024F-9A3C-1EF6F5DBC9B6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
